--- a/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_3_parsed_output/tokens_perfect.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_3_parsed_output/tokens_perfect.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3554,12 +3554,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>coarse woody debris</t>
+          <t>basal diameter</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3572,34 +3572,34 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>weather</t>
+          <t>coarse woody debris</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>aquarium</t>
+          <t>weather</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" t="n">
         <v>2</v>
@@ -3608,34 +3608,34 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>animal species</t>
+          <t>aquarium</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>animal species</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -3644,7 +3644,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Deutscher Platz 5e Leipzig Germany</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -3662,25 +3662,25 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>soil properties</t>
+          <t>Deutscher Platz 5e Leipzig Germany</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>shannon index</t>
+          <t>soil properties</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3689,16 +3689,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Taxonomic biodiversity</t>
+          <t>shannon index</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3710,13 +3710,13 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>Taxonomic biodiversity</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3728,31 +3728,31 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>aboveground</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>coral reefs</t>
+          <t>aboveground</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3764,18 +3764,18 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Rock fragments</t>
+          <t>coral reefs</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3788,34 +3788,34 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Soil horizon</t>
+          <t>Rock fragments</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Soil horizon</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
         <v>2</v>
@@ -3824,97 +3824,97 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>thickness</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>thickness</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>deposition</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>kinetic energy</t>
+          <t>deposition</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>rainfalls</t>
+          <t>kinetic energy</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>rain events</t>
+          <t>rainfalls</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3923,34 +3923,34 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Fungi</t>
+          <t>rain events</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ants</t>
+          <t>Fungi</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -3968,12 +3968,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>ants</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3986,61 +3986,61 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Grain size distribution</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>2</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>invasion</t>
+          <t>Grain size distribution</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>engineering properties</t>
+          <t>invasion</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>traits</t>
+          <t>engineering properties</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4052,18 +4052,18 @@
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>honey bees</t>
+          <t>traits</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -4076,84 +4076,84 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ecosystems</t>
+          <t>honey bees</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>environmental change</t>
+          <t>ecosystems</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Organism count</t>
+          <t>environmental change</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>riparian reserves</t>
+          <t>Organism count</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>planting density</t>
+          <t>riparian reserves</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -4166,7 +4166,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>light conditions</t>
+          <t>planting density</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4184,12 +4184,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>canopy layer</t>
+          <t>light conditions</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -4202,25 +4202,25 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>rainfall</t>
+          <t>canopy layer</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>throughfall</t>
+          <t>rainfall</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4232,18 +4232,18 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>southeast China</t>
+          <t>throughfall</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -4256,12 +4256,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>southeast China</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -4274,7 +4274,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>spring</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4292,25 +4292,25 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>basal area</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Basal area</t>
+          <t>basal area</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D216" t="n">
         <v>4</v>
@@ -4328,7 +4328,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>Basal area</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4337,16 +4337,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D217" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>tree mass</t>
+          <t>area</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4355,16 +4355,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>competition index</t>
+          <t>tree mass</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
         <v>2</v>
@@ -4382,25 +4382,25 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Cunninghamia lanceolata</t>
+          <t>competition index</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Pinus massoniana</t>
+          <t>Cunninghamia lanceolata</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4418,7 +4418,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Pinus massoniana</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4427,16 +4427,16 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>voucher specimens</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4445,21 +4445,21 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Climate Change</t>
+          <t>voucher specimens</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -4472,25 +4472,25 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>Climate Change</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4499,16 +4499,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4520,13 +4520,13 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Herbivores</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4538,18 +4538,18 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>plant communities</t>
+          <t>Herbivores</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -4562,12 +4562,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>diversity gradient</t>
+          <t>plant communities</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -4580,12 +4580,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>CO2</t>
+          <t>diversity gradient</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -4598,12 +4598,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>vegetation layer</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -4616,7 +4616,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>soil environment</t>
+          <t>vegetation layer</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4634,12 +4634,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>rogenhoferi</t>
+          <t>soil environment</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -4652,7 +4652,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Crematogaster</t>
+          <t>rogenhoferi</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -4664,36 +4664,36 @@
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>Crematogaster</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>mutualism</t>
+          <t>ph</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -4706,7 +4706,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>predation</t>
+          <t>mutualism</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4724,54 +4724,72 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>depth</t>
+          <t>predation</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C239" t="n">
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>mineral soil layers</t>
+          <t>depth</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C240" t="n">
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
+          <t>mineral soil layers</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>ENVIRONMENT</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
           <t>organic soil layers</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>ENVIRONMENT</t>
         </is>
       </c>
-      <c r="C241" t="n">
-        <v>1</v>
-      </c>
-      <c r="D241" t="n">
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="n">
         <v>1</v>
       </c>
     </row>
